--- a/BackTest/2020-01-16 BackTest REP.xlsx
+++ b/BackTest/2020-01-16 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1793.0073</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1744.3762</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>10810</v>
@@ -523,7 +523,7 @@
         <v>-1644.5942</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>10830</v>
@@ -562,7 +562,7 @@
         <v>-1644.5942</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>10850</v>
@@ -601,7 +601,7 @@
         <v>-1553.8854</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10850</v>
@@ -640,7 +640,7 @@
         <v>-1553.8855</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10880</v>
@@ -679,7 +679,7 @@
         <v>-1556.9909</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>10850</v>
@@ -718,7 +718,7 @@
         <v>-1556.9909</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>10780</v>
@@ -757,7 +757,7 @@
         <v>-1528.8709</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>10780</v>
@@ -796,7 +796,7 @@
         <v>-1578.8709</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>10810</v>
@@ -835,7 +835,7 @@
         <v>-1530.6035</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>10800</v>
@@ -874,7 +874,7 @@
         <v>-1423.3199</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>10830</v>
@@ -913,7 +913,7 @@
         <v>-1423.3199</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10890</v>
@@ -952,7 +952,7 @@
         <v>-1454.014</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>10890</v>
@@ -991,7 +991,7 @@
         <v>-1774.37</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>10860</v>
@@ -1030,7 +1030,7 @@
         <v>-1676.5804</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>10750</v>
@@ -1069,7 +1069,7 @@
         <v>-1676.5804</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>10820</v>
@@ -1108,7 +1108,7 @@
         <v>-1577.5303</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>10820</v>
@@ -1147,7 +1147,7 @@
         <v>-1436.2595</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>10860</v>
@@ -1186,7 +1186,7 @@
         <v>-1436.2595</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>10900</v>
@@ -1225,9 +1225,11 @@
         <v>-1371.8916</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10900</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,9 +1264,11 @@
         <v>-1460.5292</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10980</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1299,9 +1303,11 @@
         <v>-1840.524</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10900</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1336,9 +1342,11 @@
         <v>-1800.2167</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10890</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1373,9 +1381,11 @@
         <v>-1800.2167</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10950</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1410,9 +1420,11 @@
         <v>-1831.3461</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10950</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1447,9 +1459,11 @@
         <v>-1886.8687</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10930</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1484,9 +1498,11 @@
         <v>-1860.1753</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10920</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1521,9 +1537,11 @@
         <v>-1856.7138</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10950</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1558,9 +1576,11 @@
         <v>-1856.7138</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10980</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1595,9 +1615,11 @@
         <v>-1803.9651</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10980</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1632,9 +1654,11 @@
         <v>-1811.7168</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10990</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1669,9 +1693,11 @@
         <v>-1811.6168</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10980</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1706,9 +1732,11 @@
         <v>-1887.9365</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11000</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1743,9 +1771,11 @@
         <v>-1887.8041</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10820</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1780,9 +1810,11 @@
         <v>-1887.3906</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10920</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1817,9 +1849,11 @@
         <v>-1987.3906</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10930</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1854,9 +1888,11 @@
         <v>-1245.3862</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10840</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1891,9 +1927,11 @@
         <v>-1410.9406</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11120</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1965,9 +2003,11 @@
         <v>-1297.7932</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11050</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2002,9 +2042,11 @@
         <v>-1305.8782</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11040</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2039,9 +2081,11 @@
         <v>-1241.0498</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11000</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2076,9 +2120,11 @@
         <v>-1241.0498</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11010</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2113,9 +2159,11 @@
         <v>-1246.4465</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11010</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2150,9 +2198,11 @@
         <v>-1229.2906</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11000</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2187,9 +2237,11 @@
         <v>-1347.6399</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11010</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2224,9 +2276,11 @@
         <v>-1347.6399</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11000</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2261,9 +2315,11 @@
         <v>-1347.6399</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11000</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2298,9 +2354,11 @@
         <v>-1356.4153</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11000</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2335,9 +2393,11 @@
         <v>-1370.3651</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10940</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2372,9 +2432,11 @@
         <v>-1290.3651</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10920</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2409,9 +2471,11 @@
         <v>-1290.3651</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10940</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2446,9 +2510,11 @@
         <v>-1298.0121</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10940</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2483,9 +2549,11 @@
         <v>-1288.0121</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10920</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2520,9 +2588,11 @@
         <v>-1288.0121</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10950</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2557,9 +2627,11 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10950</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2594,9 +2666,11 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11010</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2631,9 +2705,11 @@
         <v>-1039.20639442947</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11010</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2668,9 +2744,11 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11030</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2705,9 +2783,11 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11080</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2742,9 +2822,11 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11080</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2779,9 +2861,11 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11080</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -3001,9 +3085,11 @@
         <v>-338.4421944294702</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11090</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3038,9 +3124,11 @@
         <v>-338.3421944294702</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11090</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3075,9 +3163,11 @@
         <v>-338.3421944294702</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>11140</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3297,9 +3387,11 @@
         <v>-319.4507944294702</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11150</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3408,9 +3500,11 @@
         <v>-322.7077944294702</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11140</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3445,9 +3539,11 @@
         <v>-320.1243944294702</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11140</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3778,9 +3874,11 @@
         <v>-317.7450652814882</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11080</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3815,9 +3913,11 @@
         <v>-519.1833652814882</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11150</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3852,9 +3952,11 @@
         <v>-519.1833652814882</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11050</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3889,9 +3991,11 @@
         <v>-547.1790652814882</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11050</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3926,9 +4030,11 @@
         <v>-545.3076652814882</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11030</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3963,9 +4069,11 @@
         <v>-456.1489652814882</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11050</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4000,9 +4108,11 @@
         <v>398.7272347185119</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11060</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4037,9 +4147,11 @@
         <v>398.7273347185118</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11070</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4074,9 +4186,11 @@
         <v>351.5224347185118</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11080</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4111,9 +4225,11 @@
         <v>382.0780347185118</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11070</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4185,9 +4301,11 @@
         <v>367.9640347185119</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>11080</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4222,9 +4340,11 @@
         <v>367.9640347185119</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>11080</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4259,9 +4379,11 @@
         <v>382.9640347185119</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>11080</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4296,9 +4418,11 @@
         <v>740.1310347185118</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11100</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4333,9 +4457,11 @@
         <v>637.4979347185118</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11140</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4407,9 +4533,11 @@
         <v>582.1250347185119</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11120</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4481,9 +4609,11 @@
         <v>826.5222135388872</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11120</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4629,9 +4759,11 @@
         <v>735.4321135388872</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>11160</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4999,9 +5131,11 @@
         <v>220.9245135388872</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5036,9 +5170,11 @@
         <v>220.9245135388872</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10990</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5073,9 +5209,11 @@
         <v>-290.9373864611128</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10990</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5110,9 +5248,11 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10860</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5147,9 +5287,11 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10950</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5184,9 +5326,11 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>10950</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5221,9 +5365,11 @@
         <v>-285.5486864611128</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10950</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5258,9 +5404,11 @@
         <v>-234.7844864611127</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10970</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5295,9 +5443,11 @@
         <v>-234.7844864611127</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10980</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5332,9 +5482,11 @@
         <v>-275.6411864611127</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10980</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5369,9 +5521,11 @@
         <v>0.1178135388872761</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10950</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5406,9 +5560,11 @@
         <v>-1.904886461112724</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11040</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5443,9 +5599,11 @@
         <v>-1.904886461112724</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11000</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5517,9 +5675,11 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11000</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5554,9 +5714,11 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11010</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5591,9 +5753,11 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11010</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5628,9 +5792,11 @@
         <v>186.9792135388873</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11010</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5665,9 +5831,11 @@
         <v>211.4276970375347</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11060</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5702,9 +5870,11 @@
         <v>516.7169970375347</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11090</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5961,9 +6131,11 @@
         <v>571.5565970375347</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11060</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -8070,7 +8242,7 @@
         <v>15765.13248191839</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8107,7 +8279,7 @@
         <v>16807.83898191839</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8144,7 +8316,7 @@
         <v>14357.20108191839</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8181,7 +8353,7 @@
         <v>12434.16615441839</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8255,7 +8427,7 @@
         <v>14780.56075839563</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8292,7 +8464,7 @@
         <v>13500.82485839563</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8736,7 +8908,7 @@
         <v>13819.9249320531</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8773,7 +8945,7 @@
         <v>13573.6064320531</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8847,7 +9019,7 @@
         <v>13488.2113320531</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9846,18 +10018,16 @@
         <v>12275.85066950822</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -9883,15 +10053,11 @@
         <v>12590.43351623209</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9920,15 +10086,11 @@
         <v>12553.43351623209</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9957,15 +10119,11 @@
         <v>13636.37781623209</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9994,15 +10152,11 @@
         <v>14124.81411623209</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10031,15 +10185,11 @@
         <v>13629.26540071613</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10068,15 +10218,11 @@
         <v>14195.41460071613</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10105,16 +10251,14 @@
         <v>13634.29370071613</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
       <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -10140,7 +10284,7 @@
         <v>13634.29370071613</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10173,7 +10317,7 @@
         <v>12336.06760071613</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10206,7 +10350,7 @@
         <v>12310.99700071613</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10239,7 +10383,7 @@
         <v>11923.44090071613</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10272,7 +10416,7 @@
         <v>11717.48043297171</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10305,7 +10449,7 @@
         <v>12035.06667885316</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10338,7 +10482,7 @@
         <v>11617.53457885316</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10371,7 +10515,7 @@
         <v>10980.94327885316</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10404,7 +10548,7 @@
         <v>11078.14637885316</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10437,7 +10581,7 @@
         <v>11181.49282563495</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10470,7 +10614,7 @@
         <v>10914.42302563495</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10503,7 +10647,7 @@
         <v>11039.90892563495</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10536,7 +10680,7 @@
         <v>10683.33103627325</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10569,7 +10713,7 @@
         <v>10493.06453627325</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10602,7 +10746,7 @@
         <v>10493.06453627325</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10635,7 +10779,7 @@
         <v>10552.91243627325</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10668,7 +10812,7 @@
         <v>11598.97533252032</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10701,7 +10845,7 @@
         <v>11370.71493252032</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10800,7 +10944,7 @@
         <v>11274.69973252032</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10833,7 +10977,7 @@
         <v>11267.17183252032</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11064,7 +11208,7 @@
         <v>11734.79256193208</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11097,7 +11241,7 @@
         <v>11734.79256193208</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11130,7 +11274,7 @@
         <v>11734.69346193208</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11163,7 +11307,7 @@
         <v>11613.17006193208</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11196,7 +11340,7 @@
         <v>11613.17006193208</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11229,7 +11373,7 @@
         <v>11555.19306193208</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11262,7 +11406,7 @@
         <v>10781.13386193208</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11295,7 +11439,7 @@
         <v>11720.03436193208</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11328,7 +11472,7 @@
         <v>11592.55746193208</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11361,7 +11505,7 @@
         <v>11658.79626193208</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11394,7 +11538,7 @@
         <v>11863.90804119549</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11427,7 +11571,7 @@
         <v>11863.90804119549</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11460,7 +11604,7 @@
         <v>11627.10004119549</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11493,7 +11637,7 @@
         <v>11351.41574119549</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11526,7 +11670,7 @@
         <v>11344.69814119549</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11559,7 +11703,7 @@
         <v>11493.19404119549</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11592,7 +11736,7 @@
         <v>11240.99344119549</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11625,7 +11769,7 @@
         <v>11435.41114119549</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11658,7 +11802,7 @@
         <v>11428.70894119549</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11691,7 +11835,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11724,7 +11868,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11757,7 +11901,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -16575,7 +16719,7 @@
         <v>11950.17887696357</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16608,7 +16752,7 @@
         <v>11909.40027696357</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16641,7 +16785,7 @@
         <v>11873.80027696357</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16674,7 +16818,7 @@
         <v>11873.80027696357</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16707,7 +16851,7 @@
         <v>11777.64427696357</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16740,7 +16884,7 @@
         <v>11815.16077696357</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16971,7 +17115,7 @@
         <v>12666.34077696357</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17004,7 +17148,7 @@
         <v>12995.92307696357</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17037,7 +17181,7 @@
         <v>12905.43097696357</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17070,7 +17214,7 @@
         <v>12852.18677696357</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17103,7 +17247,7 @@
         <v>12991.24147696357</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17136,7 +17280,7 @@
         <v>12798.12287696357</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17169,7 +17313,7 @@
         <v>12987.99667696357</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17202,7 +17346,7 @@
         <v>12900.10027696357</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17235,7 +17379,7 @@
         <v>12900.10027696357</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17268,7 +17412,7 @@
         <v>12900.10027696357</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17301,7 +17445,7 @@
         <v>12831.95897696357</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -20568,7 +20712,7 @@
         <v>8287.451953034706</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20865,7 +21009,7 @@
         <v>9226.29840541267</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20931,7 +21075,7 @@
         <v>9059.456205412669</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20964,7 +21108,7 @@
         <v>9077.623205412669</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20997,7 +21141,7 @@
         <v>9077.623205412669</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21096,7 +21240,7 @@
         <v>9068.603405412669</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21129,7 +21273,7 @@
         <v>9069.864205412669</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21162,7 +21306,7 @@
         <v>8959.077705412668</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21195,7 +21339,7 @@
         <v>8740.226705412668</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21228,7 +21372,7 @@
         <v>8927.252105412668</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21261,7 +21405,7 @@
         <v>9017.749005412668</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21294,7 +21438,7 @@
         <v>9017.749005412668</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21327,7 +21471,7 @@
         <v>9017.749005412668</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21360,7 +21504,7 @@
         <v>9017.749005412668</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21393,7 +21537,7 @@
         <v>9017.749005412668</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21426,7 +21570,7 @@
         <v>9687.52436537812</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21459,7 +21603,7 @@
         <v>9687.52436537812</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21492,7 +21636,7 @@
         <v>9777.33606537812</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21525,7 +21669,7 @@
         <v>9752.10996537812</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21558,7 +21702,7 @@
         <v>9486.639765378121</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21591,7 +21735,7 @@
         <v>9419.30156537812</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21624,7 +21768,7 @@
         <v>9367.64246537812</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21657,7 +21801,7 @@
         <v>9418.03316537812</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21789,7 +21933,7 @@
         <v>9445.494265378118</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21822,7 +21966,7 @@
         <v>8604.084965378119</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21888,7 +22032,7 @@
         <v>8642.478865378118</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21921,7 +22065,7 @@
         <v>8632.478865378118</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23175,7 +23319,7 @@
         <v>8487.689065378114</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23208,7 +23352,7 @@
         <v>8487.553865378113</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23241,7 +23385,7 @@
         <v>8478.553865378113</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23274,7 +23418,7 @@
         <v>9741.034165378112</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23307,7 +23451,7 @@
         <v>10012.08516537811</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23340,7 +23484,7 @@
         <v>10340.69986537811</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23373,7 +23517,7 @@
         <v>10340.69986537811</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23406,7 +23550,7 @@
         <v>10340.69986537811</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23439,7 +23583,7 @@
         <v>10349.63976537811</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23472,7 +23616,7 @@
         <v>10276.51766537811</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23505,7 +23649,7 @@
         <v>10277.70446537811</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23538,7 +23682,7 @@
         <v>10341.22786537811</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23571,7 +23715,7 @@
         <v>10341.22786537811</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23604,7 +23748,7 @@
         <v>10341.22786537811</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23637,7 +23781,7 @@
         <v>10341.22786537811</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23670,7 +23814,7 @@
         <v>10341.22786537811</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23703,7 +23847,7 @@
         <v>10392.61854765659</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23736,7 +23880,7 @@
         <v>10509.98054765659</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23769,7 +23913,7 @@
         <v>11260.28344843178</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23802,7 +23946,7 @@
         <v>12816.59630464558</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23835,7 +23979,7 @@
         <v>13297.70318330411</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23868,7 +24012,7 @@
         <v>12732.79008330411</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23901,7 +24045,7 @@
         <v>13510.24080464558</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23934,7 +24078,7 @@
         <v>13510.24080464558</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23967,7 +24111,7 @@
         <v>12792.15504010285</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24000,7 +24144,7 @@
         <v>12041.25684010285</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24033,7 +24177,7 @@
         <v>12299.04974010285</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24066,7 +24210,7 @@
         <v>12184.47584010285</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24099,7 +24243,7 @@
         <v>11649.01864010285</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24132,7 +24276,7 @@
         <v>11418.47394010285</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24165,7 +24309,7 @@
         <v>11704.87024010285</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24198,7 +24342,7 @@
         <v>11607.77414010285</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24231,7 +24375,7 @@
         <v>11873.53000151173</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24759,7 +24903,7 @@
         <v>10489.55443933526</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24825,7 +24969,7 @@
         <v>10355.21963933526</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24858,7 +25002,7 @@
         <v>10509.00623933526</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24891,7 +25035,7 @@
         <v>10490.35470470491</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24924,7 +25068,7 @@
         <v>10513.42200470491</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24957,7 +25101,7 @@
         <v>10581.55880470491</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24990,7 +25134,7 @@
         <v>10581.55880470491</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25023,7 +25167,7 @@
         <v>10587.69370470491</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25056,7 +25200,7 @@
         <v>10650.72670470491</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25089,7 +25233,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25122,7 +25266,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25155,7 +25299,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25188,7 +25332,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25221,7 +25365,7 @@
         <v>10601.17130470491</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25254,7 +25398,7 @@
         <v>10841.30260470491</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25287,7 +25431,7 @@
         <v>10807.2751355691</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25320,7 +25464,7 @@
         <v>10807.2751355691</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25353,7 +25497,7 @@
         <v>10809.2813355691</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25386,7 +25530,7 @@
         <v>10737.8397355691</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25419,7 +25563,7 @@
         <v>10737.8397355691</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25452,7 +25596,7 @@
         <v>10705.6619355691</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25485,7 +25629,7 @@
         <v>10557.2586355691</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25518,7 +25662,7 @@
         <v>10542.4586355691</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25551,7 +25695,7 @@
         <v>10608.0931355691</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25584,7 +25728,7 @@
         <v>10710.50713556911</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25617,7 +25761,7 @@
         <v>10642.59403556911</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25650,7 +25794,7 @@
         <v>10642.59403556911</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25683,7 +25827,7 @@
         <v>10406.7880355691</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25716,7 +25860,7 @@
         <v>10242.3956355691</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25749,7 +25893,7 @@
         <v>10250.1235355691</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25782,7 +25926,7 @@
         <v>10268.0785355691</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25815,7 +25959,7 @@
         <v>10264.0785355691</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25848,7 +25992,7 @@
         <v>10265.7010355691</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25881,7 +26025,7 @@
         <v>10089.9989355691</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25914,7 +26058,7 @@
         <v>10134.0749355691</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25947,7 +26091,7 @@
         <v>10525.0861355691</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25980,7 +26124,7 @@
         <v>10513.8216355691</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26013,7 +26157,7 @@
         <v>10513.8216355691</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26046,7 +26190,7 @@
         <v>10520.2606355691</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26079,7 +26223,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26112,7 +26256,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26145,7 +26289,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26178,7 +26322,7 @@
         <v>10687.9344355691</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26211,7 +26355,7 @@
         <v>10674.2344355691</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26244,7 +26388,7 @@
         <v>10684.9637355691</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26277,7 +26421,7 @@
         <v>10510.43463556911</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26310,7 +26454,7 @@
         <v>10679.7284355691</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26618,6 +26762,6 @@
       <c r="M762" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest REP.xlsx
+++ b/BackTest/2020-01-16 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1966,9 +1966,11 @@
         <v>-1210.8333</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10950</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2783,11 +2785,9 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2822,11 +2822,9 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2861,11 +2859,9 @@
         <v>-371.3091944294703</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -3085,11 +3081,9 @@
         <v>-338.4421944294702</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3124,11 +3118,9 @@
         <v>-338.3421944294702</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3163,11 +3155,9 @@
         <v>-338.3421944294702</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>11140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3387,11 +3377,9 @@
         <v>-319.4507944294702</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3500,11 +3488,9 @@
         <v>-322.7077944294702</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3539,11 +3525,9 @@
         <v>-320.1243944294702</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3874,11 +3858,9 @@
         <v>-317.7450652814882</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3913,11 +3895,9 @@
         <v>-519.1833652814882</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3952,11 +3932,9 @@
         <v>-519.1833652814882</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3991,11 +3969,9 @@
         <v>-547.1790652814882</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4030,11 +4006,9 @@
         <v>-545.3076652814882</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4069,11 +4043,9 @@
         <v>-456.1489652814882</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4108,11 +4080,9 @@
         <v>398.7272347185119</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4147,11 +4117,9 @@
         <v>398.7273347185118</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4186,11 +4154,9 @@
         <v>351.5224347185118</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4225,11 +4191,9 @@
         <v>382.0780347185118</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4301,11 +4265,9 @@
         <v>367.9640347185119</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4340,11 +4302,9 @@
         <v>367.9640347185119</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4379,11 +4339,9 @@
         <v>382.9640347185119</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4418,11 +4376,9 @@
         <v>740.1310347185118</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4457,11 +4413,9 @@
         <v>637.4979347185118</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4533,11 +4487,9 @@
         <v>582.1250347185119</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>11120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4609,11 +4561,9 @@
         <v>826.5222135388872</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>11120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4759,11 +4709,9 @@
         <v>735.4321135388872</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -5131,11 +5079,9 @@
         <v>220.9245135388872</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5170,11 +5116,9 @@
         <v>220.9245135388872</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>10990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5209,11 +5153,9 @@
         <v>-290.9373864611128</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>10990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5248,11 +5190,9 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5287,11 +5227,9 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5326,11 +5264,9 @@
         <v>-286.5486864611128</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5365,11 +5301,9 @@
         <v>-285.5486864611128</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5404,11 +5338,9 @@
         <v>-234.7844864611127</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>10970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5443,11 +5375,9 @@
         <v>-234.7844864611127</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>10980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5482,11 +5412,9 @@
         <v>-275.6411864611127</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5521,11 +5449,9 @@
         <v>0.1178135388872761</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5560,11 +5486,9 @@
         <v>-1.904886461112724</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5599,11 +5523,9 @@
         <v>-1.904886461112724</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5675,11 +5597,9 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5714,11 +5634,9 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5753,11 +5671,9 @@
         <v>175.7606135388873</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5792,11 +5708,9 @@
         <v>186.9792135388873</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5831,11 +5745,9 @@
         <v>211.4276970375347</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>11060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5870,11 +5782,9 @@
         <v>516.7169970375347</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>11090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -6131,11 +6041,9 @@
         <v>571.5565970375347</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>11060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -9019,18 +8927,16 @@
         <v>13488.2113320531</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -9056,15 +8962,11 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9093,15 +8995,11 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9130,15 +9028,11 @@
         <v>12430.4822320531</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9167,15 +9061,11 @@
         <v>11340.3556320531</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9204,15 +9094,11 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9241,15 +9127,11 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9278,15 +9160,11 @@
         <v>9206.005980136431</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9315,15 +9193,11 @@
         <v>8727.344680136432</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9352,15 +9226,11 @@
         <v>9617.599280136432</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9393,11 +9263,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +9296,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9467,11 +9329,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9504,11 +9362,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9541,11 +9395,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9578,11 +9428,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9615,11 +9461,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +9494,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +9527,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9722,15 +9556,11 @@
         <v>10832.51858013643</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9759,15 +9589,11 @@
         <v>11127.62688013643</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +9626,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9837,11 +9659,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9874,11 +9692,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9911,11 +9725,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9948,11 +9758,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9985,11 +9791,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10018,16 +9820,14 @@
         <v>12275.85066950822</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
       <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -10053,7 +9853,7 @@
         <v>12590.43351623209</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10086,7 +9886,7 @@
         <v>12553.43351623209</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10119,7 +9919,7 @@
         <v>13636.37781623209</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10152,7 +9952,7 @@
         <v>14124.81411623209</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10185,7 +9985,7 @@
         <v>13629.26540071613</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10218,7 +10018,7 @@
         <v>14195.41460071613</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10251,7 +10051,7 @@
         <v>13634.29370071613</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10284,7 +10084,7 @@
         <v>13634.29370071613</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10317,7 +10117,7 @@
         <v>12336.06760071613</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10350,7 +10150,7 @@
         <v>12310.99700071613</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10383,7 +10183,7 @@
         <v>11923.44090071613</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10416,7 +10216,7 @@
         <v>11717.48043297171</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10449,7 +10249,7 @@
         <v>12035.06667885316</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10482,7 +10282,7 @@
         <v>11617.53457885316</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10515,7 +10315,7 @@
         <v>10980.94327885316</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10548,7 +10348,7 @@
         <v>11078.14637885316</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10581,7 +10381,7 @@
         <v>11181.49282563495</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10614,7 +10414,7 @@
         <v>10914.42302563495</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10647,7 +10447,7 @@
         <v>11039.90892563495</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10680,7 +10480,7 @@
         <v>10683.33103627325</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10713,7 +10513,7 @@
         <v>10493.06453627325</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10746,7 +10546,7 @@
         <v>10493.06453627325</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10779,7 +10579,7 @@
         <v>10552.91243627325</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10812,7 +10612,7 @@
         <v>11598.97533252032</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10845,7 +10645,7 @@
         <v>11370.71493252032</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10944,7 +10744,7 @@
         <v>11274.69973252032</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10977,7 +10777,7 @@
         <v>11267.17183252032</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11208,7 +11008,7 @@
         <v>11734.79256193208</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11241,7 +11041,7 @@
         <v>11734.79256193208</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11274,7 +11074,7 @@
         <v>11734.69346193208</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11307,7 +11107,7 @@
         <v>11613.17006193208</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11340,7 +11140,7 @@
         <v>11613.17006193208</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11373,7 +11173,7 @@
         <v>11555.19306193208</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11406,7 +11206,7 @@
         <v>10781.13386193208</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11439,7 +11239,7 @@
         <v>11720.03436193208</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11472,7 +11272,7 @@
         <v>11592.55746193208</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11505,7 +11305,7 @@
         <v>11658.79626193208</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11538,7 +11338,7 @@
         <v>11863.90804119549</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11571,7 +11371,7 @@
         <v>11863.90804119549</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11604,7 +11404,7 @@
         <v>11627.10004119549</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11637,7 +11437,7 @@
         <v>11351.41574119549</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11670,7 +11470,7 @@
         <v>11344.69814119549</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11703,7 +11503,7 @@
         <v>11493.19404119549</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11736,7 +11536,7 @@
         <v>11240.99344119549</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11769,7 +11569,7 @@
         <v>11435.41114119549</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11802,7 +11602,7 @@
         <v>11428.70894119549</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11835,7 +11635,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11868,7 +11668,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11901,7 +11701,7 @@
         <v>11845.09274119549</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -24903,7 +24703,7 @@
         <v>10489.55443933526</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24969,7 +24769,7 @@
         <v>10355.21963933526</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25002,7 +24802,7 @@
         <v>10509.00623933526</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25035,7 +24835,7 @@
         <v>10490.35470470491</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25068,7 +24868,7 @@
         <v>10513.42200470491</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25101,7 +24901,7 @@
         <v>10581.55880470491</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25134,7 +24934,7 @@
         <v>10581.55880470491</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25167,7 +24967,7 @@
         <v>10587.69370470491</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25200,7 +25000,7 @@
         <v>10650.72670470491</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25233,7 +25033,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25266,7 +25066,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25299,7 +25099,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25332,7 +25132,7 @@
         <v>10551.50300470491</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25365,7 +25165,7 @@
         <v>10601.17130470491</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25398,7 +25198,7 @@
         <v>10841.30260470491</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25431,7 +25231,7 @@
         <v>10807.2751355691</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25464,7 +25264,7 @@
         <v>10807.2751355691</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25497,7 +25297,7 @@
         <v>10809.2813355691</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25530,7 +25330,7 @@
         <v>10737.8397355691</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25563,7 +25363,7 @@
         <v>10737.8397355691</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25596,7 +25396,7 @@
         <v>10705.6619355691</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25629,7 +25429,7 @@
         <v>10557.2586355691</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25662,7 +25462,7 @@
         <v>10542.4586355691</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25695,7 +25495,7 @@
         <v>10608.0931355691</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25728,7 +25528,7 @@
         <v>10710.50713556911</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25761,7 +25561,7 @@
         <v>10642.59403556911</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25794,7 +25594,7 @@
         <v>10642.59403556911</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25827,7 +25627,7 @@
         <v>10406.7880355691</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25860,7 +25660,7 @@
         <v>10242.3956355691</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25893,7 +25693,7 @@
         <v>10250.1235355691</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25926,7 +25726,7 @@
         <v>10268.0785355691</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25959,7 +25759,7 @@
         <v>10264.0785355691</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25992,7 +25792,7 @@
         <v>10265.7010355691</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26025,7 +25825,7 @@
         <v>10089.9989355691</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26058,7 +25858,7 @@
         <v>10134.0749355691</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26091,7 +25891,7 @@
         <v>10525.0861355691</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26124,7 +25924,7 @@
         <v>10513.8216355691</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26157,7 +25957,7 @@
         <v>10513.8216355691</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26190,7 +25990,7 @@
         <v>10520.2606355691</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26223,7 +26023,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26256,7 +26056,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26289,7 +26089,7 @@
         <v>10430.3375355691</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26322,7 +26122,7 @@
         <v>10687.9344355691</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26355,7 +26155,7 @@
         <v>10674.2344355691</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26388,7 +26188,7 @@
         <v>10684.9637355691</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26421,7 +26221,7 @@
         <v>10510.43463556911</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26454,7 +26254,7 @@
         <v>10679.7284355691</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26762,6 +26562,6 @@
       <c r="M762" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest REP.xlsx
+++ b/BackTest/2020-01-16 BackTest REP.xlsx
@@ -1927,11 +1927,9 @@
         <v>-1410.9406</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1964,9 @@
         <v>-1210.8333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2005,11 +2001,9 @@
         <v>-1297.7932</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +2038,9 @@
         <v>-1305.8782</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2075,9 @@
         <v>-1241.0498</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2112,9 @@
         <v>-1241.0498</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2149,9 @@
         <v>-1246.4465</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2200,11 +2186,9 @@
         <v>-1229.2906</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2223,9 @@
         <v>-1347.6399</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2260,9 @@
         <v>-1347.6399</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2297,9 @@
         <v>-1347.6399</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2356,11 +2334,9 @@
         <v>-1356.4153</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2395,11 +2371,9 @@
         <v>-1370.3651</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2590,11 +2564,9 @@
         <v>-1288.0121</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2629,11 +2601,9 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2668,11 +2638,9 @@
         <v>-1046.60639442947</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2707,11 +2675,9 @@
         <v>-1039.20639442947</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -8113,18 +8079,16 @@
         <v>16917.49669170673</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
@@ -8150,15 +8114,11 @@
         <v>15765.13248191839</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8151,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8224,15 +8180,11 @@
         <v>14357.20108191839</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8265,11 +8217,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8302,11 +8250,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8339,11 +8283,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +8316,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8413,11 +8349,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +8382,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8487,11 +8415,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +8448,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8481,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8598,11 +8514,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8547,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8580,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +8613,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +8646,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +8679,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +8712,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8745,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8894,11 +8778,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8927,16 +8807,14 @@
         <v>13488.2113320531</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
       <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -8962,7 +8840,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8995,7 +8873,7 @@
         <v>13016.4295320531</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9028,7 +8906,7 @@
         <v>12430.4822320531</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9061,7 +8939,7 @@
         <v>11340.3556320531</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9094,7 +8972,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9127,7 +9005,7 @@
         <v>10837.8649320531</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9160,7 +9038,7 @@
         <v>9206.005980136431</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9193,7 +9071,7 @@
         <v>8727.344680136432</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9226,7 +9104,7 @@
         <v>9617.599280136432</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9556,7 +9434,7 @@
         <v>10832.51858013643</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9589,7 +9467,7 @@
         <v>11127.62688013643</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
